--- a/Distribution/Examples/ACQ.Sudoku.xlsx
+++ b/Distribution/Examples/ACQ.Sudoku.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ACQ\Distribution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ACQ\Distribution\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9AEC08-FDD8-4FCE-AFF7-BCD219F4E83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC9CAC2-A1A2-4B2C-9ABD-09BF788E2877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,7 +568,7 @@
   <dimension ref="B2:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,8 +608,8 @@
         <f t="array" ref="B4:J12">_xll.acq_sudoku_generate()</f>
         <v/>
       </c>
-      <c r="C4" s="2" t="str">
-        <v/>
+      <c r="C4" s="2">
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="str">
         <v/>
@@ -617,8 +617,8 @@
       <c r="E4" s="1" t="str">
         <v/>
       </c>
-      <c r="F4" s="2">
-        <v>7</v>
+      <c r="F4" s="2" t="str">
+        <v/>
       </c>
       <c r="G4" s="3" t="str">
         <v/>
@@ -626,39 +626,39 @@
       <c r="H4" s="1" t="str">
         <v/>
       </c>
-      <c r="I4" s="2">
-        <v>9</v>
-      </c>
-      <c r="J4" s="3" t="str">
-        <v/>
+      <c r="I4" s="2" t="str">
+        <v/>
+      </c>
+      <c r="J4" s="3">
+        <v>5</v>
       </c>
       <c r="L4" s="1">
         <f t="array" ref="L4:T12">_xll.acq_sudoku_solve(B4:J12)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M4" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N4" s="3">
         <v>4</v>
       </c>
       <c r="O4" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P4" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R4" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S4" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V4" t="s">
         <v>3</v>
@@ -669,115 +669,115 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C5" s="5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6" t="str">
-        <v/>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D5" s="6">
+        <v>6</v>
       </c>
       <c r="E5" s="4" t="str">
         <v/>
       </c>
-      <c r="F5" s="5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="6">
-        <v>5</v>
-      </c>
-      <c r="H5" s="4" t="str">
-        <v/>
+      <c r="F5" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G5" s="6" t="str">
+        <v/>
+      </c>
+      <c r="H5" s="4">
+        <v>4</v>
       </c>
       <c r="I5" s="5" t="str">
         <v/>
       </c>
-      <c r="J5" s="6" t="str">
-        <v/>
+      <c r="J5" s="6">
+        <v>9</v>
       </c>
       <c r="L5" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M5" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5" s="6">
         <v>6</v>
       </c>
       <c r="O5" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P5" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R5" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S5" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T5" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="str">
         <v/>
       </c>
-      <c r="C6" s="8">
-        <v>1</v>
+      <c r="C6" s="8" t="str">
+        <v/>
       </c>
       <c r="D6" s="9" t="str">
         <v/>
       </c>
       <c r="E6" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6" s="8" t="str">
         <v/>
       </c>
-      <c r="G6" s="9" t="str">
-        <v/>
+      <c r="G6" s="9">
+        <v>9</v>
       </c>
       <c r="H6" s="7" t="str">
         <v/>
       </c>
-      <c r="I6" s="8" t="str">
-        <v/>
+      <c r="I6" s="8">
+        <v>8</v>
       </c>
       <c r="J6" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L6" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M6" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N6" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O6" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P6" s="8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q6" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R6" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S6" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T6" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
@@ -787,14 +787,14 @@
       <c r="C7" s="2" t="str">
         <v/>
       </c>
-      <c r="D7" s="3" t="str">
-        <v/>
+      <c r="D7" s="3">
+        <v>3</v>
       </c>
       <c r="E7" s="1" t="str">
         <v/>
       </c>
-      <c r="F7" s="2">
-        <v>5</v>
+      <c r="F7" s="2" t="str">
+        <v/>
       </c>
       <c r="G7" s="3" t="str">
         <v/>
@@ -809,31 +809,31 @@
         <v/>
       </c>
       <c r="L7" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M7" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N7" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O7" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P7" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R7" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T7" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
@@ -841,60 +841,60 @@
         <v/>
       </c>
       <c r="C8" s="5">
-        <v>4</v>
-      </c>
-      <c r="D8" s="6">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="str">
+        <v/>
       </c>
       <c r="E8" s="4">
-        <v>9</v>
-      </c>
-      <c r="F8" s="5" t="str">
-        <v/>
+        <v>8</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3</v>
       </c>
       <c r="G8" s="6" t="str">
         <v/>
       </c>
-      <c r="H8" s="4" t="str">
-        <v/>
+      <c r="H8" s="4">
+        <v>7</v>
       </c>
       <c r="I8" s="5" t="str">
         <v/>
       </c>
-      <c r="J8" s="6">
-        <v>1</v>
+      <c r="J8" s="6" t="str">
+        <v/>
       </c>
       <c r="L8" s="4">
         <v>6</v>
       </c>
       <c r="M8" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N8" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O8" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P8" s="5">
         <v>3</v>
       </c>
       <c r="Q8" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R8" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S8" s="5">
         <v>2</v>
       </c>
       <c r="T8" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" s="8" t="str">
         <v/>
@@ -902,14 +902,14 @@
       <c r="D9" s="9" t="str">
         <v/>
       </c>
-      <c r="E9" s="7">
-        <v>1</v>
+      <c r="E9" s="7" t="str">
+        <v/>
       </c>
       <c r="F9" s="8" t="str">
         <v/>
       </c>
-      <c r="G9" s="9">
-        <v>6</v>
+      <c r="G9" s="9" t="str">
+        <v/>
       </c>
       <c r="H9" s="7" t="str">
         <v/>
@@ -921,31 +921,31 @@
         <v/>
       </c>
       <c r="L9" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M9" s="8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N9" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O9" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P9" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q9" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R9" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S9" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T9" s="9">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
@@ -964,64 +964,64 @@
       <c r="F10" s="2" t="str">
         <v/>
       </c>
-      <c r="G10" s="3" t="str">
-        <v/>
-      </c>
-      <c r="H10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="I10" s="2">
-        <v>8</v>
+      <c r="G10" s="3">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <v/>
       </c>
       <c r="J10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N10" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O10" s="1">
         <v>7</v>
       </c>
       <c r="P10" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q10" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R10" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S10" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="str">
         <v/>
       </c>
-      <c r="C11" s="5">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6">
-        <v>9</v>
+      <c r="C11" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D11" s="6" t="str">
+        <v/>
       </c>
       <c r="E11" s="4" t="str">
         <v/>
       </c>
-      <c r="F11" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G11" s="6">
-        <v>2</v>
+      <c r="F11" s="5">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6" t="str">
+        <v/>
       </c>
       <c r="H11" s="4" t="str">
         <v/>
@@ -1029,40 +1029,40 @@
       <c r="I11" s="5" t="str">
         <v/>
       </c>
-      <c r="J11" s="6" t="str">
-        <v/>
+      <c r="J11" s="6">
+        <v>1</v>
       </c>
       <c r="L11" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N11" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O11" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P11" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q11" s="6">
         <v>2</v>
       </c>
       <c r="R11" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S11" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T11" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7">
-        <v>1</v>
+      <c r="B12" s="7" t="str">
+        <v/>
       </c>
       <c r="C12" s="8" t="str">
         <v/>
@@ -1073,44 +1073,44 @@
       <c r="E12" s="7" t="str">
         <v/>
       </c>
-      <c r="F12" s="8" t="str">
-        <v/>
-      </c>
-      <c r="G12" s="9" t="str">
-        <v/>
+      <c r="F12" s="8">
+        <v>9</v>
+      </c>
+      <c r="G12" s="9">
+        <v>4</v>
       </c>
       <c r="H12" s="7" t="str">
         <v/>
       </c>
-      <c r="I12" s="8">
-        <v>4</v>
-      </c>
-      <c r="J12" s="9">
-        <v>7</v>
+      <c r="I12" s="8" t="str">
+        <v/>
+      </c>
+      <c r="J12" s="9" t="str">
+        <v/>
       </c>
       <c r="L12" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M12" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N12" s="9">
         <v>2</v>
       </c>
       <c r="O12" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P12" s="8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q12" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R12" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S12" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T12" s="9">
         <v>7</v>
